--- a/structure_data/ECD_annotation.xlsx
+++ b/structure_data/ECD_annotation.xlsx
@@ -15,8 +15,9 @@
     <sheet name="xtal_annotation" sheetId="1" r:id="rId1"/>
     <sheet name="wt" sheetId="2" r:id="rId2"/>
     <sheet name="B1" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="ligand_alignment" sheetId="5" r:id="rId5"/>
+    <sheet name="H2-T5 region" sheetId="4" r:id="rId4"/>
+    <sheet name="anomalies" sheetId="6" r:id="rId5"/>
+    <sheet name="ligand_alignment" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="161">
   <si>
     <t>H1b</t>
   </si>
@@ -508,6 +509,12 @@
   </si>
   <si>
     <t>H4x50</t>
+  </si>
+  <si>
+    <t>placholder</t>
+  </si>
+  <si>
+    <t>S6x501</t>
   </si>
 </sst>
 </file>
@@ -667,7 +674,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -709,6 +716,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1042,7 +1050,7 @@
   <dimension ref="A1:AL38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4545,7 +4553,7 @@
         <v>76</v>
       </c>
       <c r="Q32" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R32" s="8" t="s">
         <v>4</v>
@@ -4659,7 +4667,7 @@
         <v>76</v>
       </c>
       <c r="Q33" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R33" s="8" t="s">
         <v>4</v>
@@ -6980,7 +6988,7 @@
       </c>
       <c r="W9">
         <f>VLOOKUP(wt!$A9,xtal_annotation!$A$1:$AK$105,17,FALSE)</f>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X9" t="str">
         <f>VLOOKUP(wt!$A9,xtal_annotation!$A$1:$AK$105,18,FALSE)</f>
@@ -9766,7 +9774,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11517,6 +11525,160 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
